--- a/product-definitions/spreadsheet/mean-co2-h2o.xlsx
+++ b/product-definitions/spreadsheet/mean-co2-h2o.xlsx
@@ -12,20 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -125,6 +125,12 @@
     <t>Mole Concentration of Carbon Dioxide in air</t>
   </si>
   <si>
+    <t>chemical_species</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
     <t>divergence_of_mole_concentration_of_carbon_dioxide_in_air</t>
   </si>
   <si>
@@ -134,13 +140,16 @@
     <t>mole_concentration_of_water_vapor_in_air</t>
   </si>
   <si>
-    <t>Mole concentration of Water Vapor in air</t>
+    <t>Mole concentration of Water Vapour in air</t>
+  </si>
+  <si>
+    <t>H2O</t>
   </si>
   <si>
     <t>divergence_of_mole_concentration_of_water_vapor_in_air</t>
   </si>
   <si>
-    <t>Divergence of mole concentration of Water Vapor in air</t>
+    <t>Divergence of mole concentration of Water Vapour in air</t>
   </si>
   <si>
     <t>specific_humidity</t>
@@ -267,51 +276,87 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -320,19 +365,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,118 +407,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1"/>
     <row r="6" ht="12.0" customHeight="1"/>
@@ -1505,22 +1541,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1533,7 +1569,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1547,7 +1583,7 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1619,7 +1655,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1633,7 +1669,7 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1651,7 +1687,7 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1705,7 +1741,7 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1719,7 +1755,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -1737,7 +1773,7 @@
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1791,7 +1827,7 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1805,7 +1841,7 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -1823,7 +1859,7 @@
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1874,55 +1910,55 @@
       </c>
     </row>
     <row r="51" ht="12.0" customHeight="1">
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" ht="12.0" customHeight="1">
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" ht="12.0" customHeight="1">
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="54" ht="12.0" customHeight="1">
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="55" ht="12.0" customHeight="1">
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" ht="12.0" customHeight="1">
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="17">
         <v>-1.0E20</v>
       </c>
     </row>
     <row r="57" ht="12.0" customHeight="1">
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="9" t="s">
@@ -1930,7 +1966,7 @@
       </c>
     </row>
     <row r="58" ht="12.0" customHeight="1">
-      <c r="B58" t="s">
+      <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -1938,86 +1974,86 @@
       </c>
     </row>
     <row r="59" ht="12.0" customHeight="1">
-      <c r="B59" t="s">
+      <c r="B59" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="60" ht="12.0" customHeight="1">
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" ht="12.0" customHeight="1"/>
-    <row r="62" ht="12.0" customHeight="1">
-      <c r="A62" t="s">
+    <row r="61" ht="12.0" customHeight="1">
+      <c r="B61" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
+      <c r="C61" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" ht="12.0" customHeight="1"/>
     <row r="63" ht="12.0" customHeight="1">
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>11</v>
+      <c r="A63" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="B68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="8">
-        <v>-1.0E20</v>
+        <v>16</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C69" s="8">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="B70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>20</v>
@@ -2025,780 +2061,808 @@
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="B71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" ht="12.0" customHeight="1">
+      <c r="B73" t="s">
         <v>24</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" ht="12.0" customHeight="1"/>
     <row r="74" ht="12.0" customHeight="1">
-      <c r="A74" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" ht="12.0" customHeight="1">
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
+      <c r="B74" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" ht="12.0" customHeight="1"/>
     <row r="76" ht="12.0" customHeight="1">
-      <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
+      <c r="A76" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="B78" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="8">
-        <v>-1.0E20</v>
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="82" ht="12.0" customHeight="1">
       <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C82" s="8">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" ht="12.0" customHeight="1">
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" ht="12.0" customHeight="1">
+      <c r="B86" t="s">
         <v>24</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" ht="12.0" customHeight="1"/>
-    <row r="86" ht="12.0" customHeight="1">
-      <c r="A86" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="87" ht="12.0" customHeight="1">
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" ht="12.0" customHeight="1">
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-    </row>
+      <c r="B87" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" ht="12.0" customHeight="1"/>
     <row r="89" ht="12.0" customHeight="1">
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>35</v>
+      <c r="A89" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="90" ht="12.0" customHeight="1">
       <c r="B90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="12.0" customHeight="1">
       <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" ht="12.0" customHeight="1">
       <c r="B92" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="8">
-        <v>-1.0E20</v>
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="12.0" customHeight="1">
       <c r="B93" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="94" ht="12.0" customHeight="1">
       <c r="B94" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="95" ht="12.0" customHeight="1">
       <c r="B95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="C95" s="8">
+        <v>-1.0E20</v>
       </c>
     </row>
     <row r="96" ht="12.0" customHeight="1">
       <c r="B96" t="s">
-        <v>24</v>
-      </c>
-      <c r="C96" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" ht="12.0" customHeight="1"/>
+        <v>19</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" ht="12.0" customHeight="1">
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="98" ht="12.0" customHeight="1">
-      <c r="A98" t="s">
-        <v>43</v>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="12.0" customHeight="1">
       <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="12.0" customHeight="1">
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" ht="12.0" customHeight="1">
-      <c r="B101" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>45</v>
-      </c>
-    </row>
+      <c r="B100" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" ht="12.0" customHeight="1"/>
     <row r="102" ht="12.0" customHeight="1">
-      <c r="B102" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" t="s">
-        <v>43</v>
+      <c r="A102" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="103" ht="12.0" customHeight="1">
       <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" ht="12.0" customHeight="1">
       <c r="B104" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="8">
-        <v>-1.0E20</v>
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="105" ht="12.0" customHeight="1">
       <c r="B105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="106" ht="12.0" customHeight="1">
       <c r="B106" t="s">
-        <v>21</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="107" ht="12.0" customHeight="1">
       <c r="B107" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" ht="12.0" customHeight="1">
       <c r="B108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" ht="12.0" customHeight="1"/>
+        <v>18</v>
+      </c>
+      <c r="C108" s="8">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="109" ht="12.0" customHeight="1">
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="110" ht="12.0" customHeight="1">
-      <c r="A110" t="s">
-        <v>47</v>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="12.0" customHeight="1">
       <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="112" ht="12.0" customHeight="1">
       <c r="B112" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" ht="12.0" customHeight="1">
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>45</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="12.0" customHeight="1"/>
     <row r="114" ht="12.0" customHeight="1">
-      <c r="B114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>47</v>
+      <c r="A114" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="115" ht="12.0" customHeight="1">
       <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="116" ht="12.0" customHeight="1">
       <c r="B116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="8">
-        <v>-1.0E20</v>
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="117" ht="12.0" customHeight="1">
       <c r="B117" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="118" ht="12.0" customHeight="1">
       <c r="B118" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="119" ht="12.0" customHeight="1">
       <c r="B119" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="120" ht="12.0" customHeight="1">
       <c r="B120" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" ht="12.0" customHeight="1"/>
+        <v>18</v>
+      </c>
+      <c r="C120" s="8">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="121" ht="12.0" customHeight="1">
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="122" ht="12.0" customHeight="1">
-      <c r="A122" t="s">
-        <v>49</v>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
       <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
       <c r="B124" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" ht="12.0" customHeight="1">
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" ht="12.0" customHeight="1"/>
     <row r="126" ht="12.0" customHeight="1">
-      <c r="B126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" t="s">
-        <v>49</v>
+      <c r="A126" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="127" ht="12.0" customHeight="1">
       <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="128" ht="12.0" customHeight="1">
       <c r="B128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="8">
-        <v>-1.0E20</v>
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="129" ht="12.0" customHeight="1">
       <c r="B129" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C129" s="21">
+        <v>1.0</v>
       </c>
     </row>
     <row r="130" ht="12.0" customHeight="1">
       <c r="B130" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="131" ht="12.0" customHeight="1">
       <c r="B131" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="132" ht="12.0" customHeight="1">
       <c r="B132" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" ht="12.0" customHeight="1"/>
+        <v>18</v>
+      </c>
+      <c r="C132" s="8">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="133" ht="12.0" customHeight="1">
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="134" ht="12.0" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>51</v>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="135" ht="12.0" customHeight="1">
       <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="136" ht="12.0" customHeight="1">
       <c r="B136" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" ht="12.0" customHeight="1">
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" ht="12.0" customHeight="1"/>
     <row r="138" ht="12.0" customHeight="1">
-      <c r="B138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>51</v>
+      <c r="A138" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="139" ht="12.0" customHeight="1">
       <c r="B139" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="140" ht="12.0" customHeight="1">
       <c r="B140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="8">
-        <v>-1.0E20</v>
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="141" ht="12.0" customHeight="1">
       <c r="B141" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C141" s="22">
+        <v>1.0</v>
       </c>
     </row>
     <row r="142" ht="12.0" customHeight="1">
       <c r="B142" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="143" ht="12.0" customHeight="1">
       <c r="B143" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="144" ht="12.0" customHeight="1">
       <c r="B144" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="145" ht="12.0" customHeight="1"/>
+        <v>18</v>
+      </c>
+      <c r="C144" s="8">
+        <v>-1.0E20</v>
+      </c>
+    </row>
+    <row r="145" ht="12.0" customHeight="1">
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="146" ht="12.0" customHeight="1">
-      <c r="A146" t="s">
-        <v>53</v>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="147" ht="12.0" customHeight="1">
       <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="148" ht="12.0" customHeight="1">
       <c r="B148" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" ht="12.0" customHeight="1">
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149" ht="12.0" customHeight="1"/>
     <row r="150" ht="12.0" customHeight="1">
-      <c r="B150" t="s">
-        <v>15</v>
-      </c>
-      <c r="C150" s="10"/>
+      <c r="A150" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="151" ht="12.0" customHeight="1">
       <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" ht="12.0" customHeight="1">
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" ht="12.0" customHeight="1">
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="21">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154" ht="12.0" customHeight="1">
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="21"/>
+    </row>
+    <row r="155" ht="12.0" customHeight="1">
+      <c r="B155" t="s">
         <v>16</v>
       </c>
-      <c r="C151" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="152" ht="12.0" customHeight="1">
-      <c r="B152" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="153" ht="12.0" customHeight="1">
-      <c r="B153" s="14" t="s">
+      <c r="C155" t="s">
         <v>58</v>
       </c>
-      <c r="C153" s="15" t="s">
+    </row>
+    <row r="156" ht="12.0" customHeight="1">
+      <c r="B156" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="154" ht="12.0" customHeight="1"/>
-    <row r="155" ht="12.0" customHeight="1">
-      <c r="A155" t="s">
+      <c r="C156" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="156" ht="12.0" customHeight="1">
-      <c r="B156" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="157" ht="12.0" customHeight="1">
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" ht="12.0" customHeight="1">
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
+      <c r="B157" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C157" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" ht="12.0" customHeight="1"/>
     <row r="159" ht="12.0" customHeight="1">
-      <c r="B159" t="s">
-        <v>15</v>
-      </c>
-      <c r="C159" s="10"/>
+      <c r="A159" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="160" ht="12.0" customHeight="1">
       <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="161" ht="12.0" customHeight="1">
+      <c r="B161" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" ht="12.0" customHeight="1">
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="21">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="163" ht="12.0" customHeight="1">
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="21"/>
+    </row>
+    <row r="164" ht="12.0" customHeight="1">
+      <c r="B164" t="s">
         <v>16</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C164" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" ht="12.0" customHeight="1">
+      <c r="B165" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" ht="12.0" customHeight="1">
+      <c r="B166" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="161" ht="12.0" customHeight="1">
-      <c r="B161" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" ht="12.0" customHeight="1">
-      <c r="B162" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" ht="12.0" customHeight="1"/>
-    <row r="164" ht="12.0" customHeight="1">
-      <c r="A164" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="165" ht="12.0" customHeight="1">
-      <c r="B165" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="166" ht="12.0" customHeight="1">
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" ht="12.0" customHeight="1">
-      <c r="B167" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
+      <c r="C166" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" ht="12.0" customHeight="1"/>
     <row r="168" ht="12.0" customHeight="1">
-      <c r="B168" t="s">
-        <v>15</v>
-      </c>
-      <c r="C168" s="10"/>
+      <c r="A168" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="169" ht="12.0" customHeight="1">
       <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="170" ht="12.0" customHeight="1">
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" ht="12.0" customHeight="1">
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="21">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="172" ht="12.0" customHeight="1">
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172" s="21"/>
+    </row>
+    <row r="173" ht="12.0" customHeight="1">
+      <c r="B173" t="s">
         <v>16</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="170" ht="12.0" customHeight="1">
-      <c r="B170" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="171" ht="12.0" customHeight="1">
-      <c r="B171" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="172" ht="12.0" customHeight="1"/>
-    <row r="173" ht="12.0" customHeight="1">
-      <c r="A173" t="s">
+      <c r="C173" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="174" ht="12.0" customHeight="1">
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>54</v>
+      <c r="B174" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="175" ht="12.0" customHeight="1">
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" ht="12.0" customHeight="1">
-      <c r="B176" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" s="10">
-        <v>1.0</v>
-      </c>
-    </row>
+      <c r="B175" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" ht="12.0" customHeight="1"/>
     <row r="177" ht="12.0" customHeight="1">
-      <c r="B177" t="s">
-        <v>15</v>
-      </c>
-      <c r="C177" s="10"/>
+      <c r="A177" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="178" ht="12.0" customHeight="1">
       <c r="B178" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" ht="12.0" customHeight="1">
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" ht="12.0" customHeight="1">
+      <c r="B180" t="s">
+        <v>2</v>
+      </c>
+      <c r="C180" s="21">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="181" ht="12.0" customHeight="1">
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="21"/>
+    </row>
+    <row r="182" ht="12.0" customHeight="1">
+      <c r="B182" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C182" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="183" ht="12.0" customHeight="1">
+      <c r="B183" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C183" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="179" ht="12.0" customHeight="1">
-      <c r="B179" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="180" ht="12.0" customHeight="1">
-      <c r="B180" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="181" ht="12.0" customHeight="1"/>
-    <row r="182" ht="12.0" customHeight="1"/>
-    <row r="183" ht="12.0" customHeight="1"/>
-    <row r="184" ht="12.0" customHeight="1"/>
+    <row r="184" ht="12.0" customHeight="1">
+      <c r="B184" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="185" ht="12.0" customHeight="1"/>
     <row r="186" ht="12.0" customHeight="1"/>
     <row r="187" ht="12.0" customHeight="1"/>
@@ -2810,20 +2874,20 @@
     <row r="193" ht="12.0" customHeight="1"/>
     <row r="194" ht="12.0" customHeight="1"/>
     <row r="195" ht="12.0" customHeight="1"/>
-    <row r="196" ht="12.0" customHeight="1">
-      <c r="C196" s="10"/>
-    </row>
-    <row r="197" ht="12.0" customHeight="1">
-      <c r="C197" s="10"/>
-    </row>
+    <row r="196" ht="12.0" customHeight="1"/>
+    <row r="197" ht="12.0" customHeight="1"/>
     <row r="198" ht="12.0" customHeight="1"/>
-    <row r="199" ht="12.0" customHeight="1">
-      <c r="C199" s="10"/>
-    </row>
-    <row r="200" ht="12.0" customHeight="1"/>
-    <row r="201" ht="12.0" customHeight="1"/>
+    <row r="199" ht="12.0" customHeight="1"/>
+    <row r="200" ht="12.0" customHeight="1">
+      <c r="C200" s="21"/>
+    </row>
+    <row r="201" ht="12.0" customHeight="1">
+      <c r="C201" s="21"/>
+    </row>
     <row r="202" ht="12.0" customHeight="1"/>
-    <row r="203" ht="12.0" customHeight="1"/>
+    <row r="203" ht="12.0" customHeight="1">
+      <c r="C203" s="21"/>
+    </row>
     <row r="204" ht="12.0" customHeight="1"/>
     <row r="205" ht="12.0" customHeight="1"/>
     <row r="206" ht="12.0" customHeight="1"/>
@@ -3605,6 +3669,10 @@
     <row r="982" ht="12.0" customHeight="1"/>
     <row r="983" ht="12.0" customHeight="1"/>
     <row r="984" ht="12.0" customHeight="1"/>
+    <row r="985" ht="12.0" customHeight="1"/>
+    <row r="986" ht="12.0" customHeight="1"/>
+    <row r="987" ht="12.0" customHeight="1"/>
+    <row r="988" ht="12.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
